--- a/Income/OKE_inc.xlsx
+++ b/Income/OKE_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2488</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2309</v>
+        <v>0.2725</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2594</v>
+        <v>0.3007</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2869</v>
+        <v>0.3245</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2972</v>
+        <v>0.3322</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3124</v>
@@ -2108,7 +2108,7 @@
         <v>0.159</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1534</v>
+        <v>0.1535</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.1439</v>
@@ -2235,16 +2235,16 @@
         <v>0.0937</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0957</v>
+        <v>0.0958</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0932</v>
+        <v>0.0933</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.1096</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1623</v>
+        <v>0.1624</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1525</v>
@@ -2368,7 +2368,7 @@
         <v>0.072</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0842</v>
+        <v>0.0843</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.1257</v>
@@ -2489,16 +2489,16 @@
         <v>-0.0309</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.1494</v>
+        <v>-0.1509</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.2233</v>
+        <v>-0.2247</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.1976</v>
+        <v>-0.199</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.1859</v>
+        <v>-0.1871</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-0.1481</v>
@@ -4006,16 +4006,16 @@
         <v>0.3018</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.2809</v>
+        <v>0.2807</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.2664</v>
+        <v>0.2662</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.2566</v>
+        <v>0.2565</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.2353</v>
+        <v>0.2352</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.2219</v>
@@ -4133,16 +4133,16 @@
         <v>0.2255</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2058</v>
+        <v>0.2045</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2023</v>
+        <v>0.2009</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2147</v>
+        <v>0.2135</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.1927</v>
+        <v>0.1915</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.1877</v>
